--- a/pred_ohlcv/54_21/2020-01-14 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 MXC ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>4937015.623928092</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2705854.448728092</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2705854.448728092</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-527429.2577719074</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-5003939.567771907</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-6627745.430971907</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-6997494.701171908</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-6951581.043671908</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-7167470.525871908</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-7726998.079971909</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-961182.8593719078</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1306575.859371908</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2463766.015171908</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-2463166.015171908</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1573977.602171908</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1572977.602171908</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2793022.835471908</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2350054.443471908</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-2410054.443471908</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-22969374.1502762</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-22969374.1502762</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-22969374.1502762</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 MXC ohlcv.xlsx
@@ -1510,7 +1510,7 @@
         <v>-7726998.079971909</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-5160652.946971908</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-2199543.576471908</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-602460.0842719076</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-889173.9929719076</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-886758.6629719076</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-2036758.662971908</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2036758.662971908</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-2004619.586771908</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-2004619.586771908</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1917977.889171908</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1788483.021771908</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1828483.021771908</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1986324.931371908</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1986324.931371908</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1976339.911371908</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-2675694.288971907</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3145310.744371907</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3145310.744371907</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-3144840.324471907</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-3591907.477571907</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-3100678.028371907</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3100678.028371907</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2970132.283171907</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3047235.357271907</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-5125775.585371907</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-22969374.1502762</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-22969374.1502762</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
